--- a/output/repas.xlsx
+++ b/output/repas.xlsx
@@ -37,18 +37,6 @@
     <sheet name="repas 28" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="repas 29" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="repas 30" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="repas 31" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="repas 32" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="repas 33" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="repas 34" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="repas 35" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="repas 36" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="repas 37" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="repas 38" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="repas 39" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="repas 40" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="repas 41" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="repas 42" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,61 +477,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03143396324022973</v>
+        <v>90.96505564116499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08014359674307936</v>
+        <v>2.246926995423044e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1158799948796982</v>
+        <v>984.3855398420667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02235624303922264</v>
+        <v>4.803835486009933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.975333961919182e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.300401631110114e-11</v>
       </c>
     </row>
   </sheetData>
@@ -580,61 +568,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09738839474340075</v>
+        <v>157.5130590232161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1350762516486399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1809497971092618</v>
+        <v>84.18741205582613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02140788690080518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01633173562357196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009171319886073623</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -671,61 +659,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1373466184539132</v>
+        <v>167.1950245941377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.738577123222495e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2085805875470057</v>
+        <v>41.74289913607614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.677280221992363e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01477103249143261</v>
+        <v>285.1541361722156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00791838410535713</v>
+        <v>7.320236657767964e-11</v>
       </c>
     </row>
   </sheetData>
@@ -762,11 +750,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1163573717695147</v>
+        <v>160.1302752963581</v>
       </c>
     </row>
     <row r="3">
@@ -782,31 +770,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Pig Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2884153632690849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02389205240406349</v>
+        <v>12.5293803268536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01952668606890532</v>
+        <v>618.3647108942546</v>
       </c>
     </row>
     <row r="7">
@@ -857,47 +845,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2558912918047883</v>
+        <v>247.2026118723566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.241628749288793e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4190983602258601</v>
+        <v>109.4323112047459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01546374973357018</v>
+        <v>13.16939265236276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1512409828275165</v>
+        <v>1.970974494724942e-09</v>
       </c>
     </row>
     <row r="7">
@@ -907,7 +895,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.24065202555812e-09</v>
       </c>
     </row>
   </sheetData>
@@ -944,61 +932,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2133041937470506</v>
+        <v>246.1999872410644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1714493676244045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.116576991959684</v>
+        <v>151.5211055210923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.85260805580263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1165177556979027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1607651474053929</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1035,17 +1023,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1111535183719987</v>
+        <v>538.6616794325497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1055,41 +1043,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2134176497405224</v>
+        <v>312.9190616165504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008960940676438767</v>
+        <v>10.53268172674868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008651365866736149</v>
+        <v>1.183479932690392e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004880679523429826</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1126,11 +1114,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1060758297241562</v>
+        <v>158.4833849774245</v>
       </c>
     </row>
     <row r="3">
@@ -1140,27 +1128,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006352253491189862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2395556556332188</v>
+        <v>197.7862798235786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006031808159796134</v>
+        <v>17.61227752924772</v>
       </c>
     </row>
     <row r="6">
@@ -1170,13 +1158,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01509796342077705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1217,17 +1205,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03819875442906043</v>
+        <v>1.775934719616389e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1237,41 +1225,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1484430178901628</v>
+        <v>784.3506053233177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02349336408902686</v>
+        <v>5.333867301366521e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009281893080526731</v>
+        <v>1088.267560730181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001993536528001163</v>
+        <v>4.59699151618857e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1308,61 +1296,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2862233117716045</v>
+        <v>4.686044963923201e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1982918465067572</v>
+        <v>5.992723123169621e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3585650509651261</v>
+        <v>155.8088636303524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009247843449705861</v>
+        <v>21.45194499302679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09294199691513354</v>
+        <v>3.714072074663603e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1633404229794515</v>
+        <v>7.240052869562105e-12</v>
       </c>
     </row>
   </sheetData>
@@ -1399,61 +1387,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02698620720200043</v>
+        <v>193.0661830823952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08077588977091575</v>
+        <v>6.096604594633126e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1455344838899602</v>
+        <v>29.97664342559968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.675677476475469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007266880088550197</v>
+        <v>1.419923777850682e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01093715814052635</v>
+        <v>4.836798641012212e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1494,47 +1482,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03970414535188135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07529132709060754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2791866169406425</v>
+        <v>223.4564809629762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005128278226152624</v>
+        <v>17.36514205696508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03323892294135051</v>
+        <v>1513.08043113101</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0258212101387084</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1581,11 +1569,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2661801414267259</v>
+        <v>206.8051282032456</v>
       </c>
     </row>
     <row r="3">
@@ -1595,37 +1583,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1239302483059131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1782347970144691</v>
+        <v>64.62660256291295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01085561779457145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04391598429673105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1635,7 +1623,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05981096777485029</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1676,43 +1664,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>841.4648405342131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0192657399660514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1632881482532737</v>
+        <v>223.8423312790833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01646813464703083</v>
+        <v>22.77928115669937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1722,7 +1710,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1763,21 +1751,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0007047069319410237</v>
+        <v>183.9284786904136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4538097227885841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1787,33 +1775,33 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5257817611233672</v>
+        <v>142.6711800391596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.972912064821356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003097503259335343</v>
+        <v>2.452330458773647e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1858,17 +1846,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2791006289848159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06835930517139502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1878,13 +1866,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1041009598059929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1894,21 +1882,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03997658279864234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05998764139140926</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1949,27 +1937,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4426699871576816</v>
+        <v>362.2354143238133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.206667479057195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09040191380776422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1979,27 +1967,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0189033564019021</v>
+        <v>20.02266076787945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09115004358407792</v>
+        <v>2034.441673555265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.164510846710818</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2036,17 +2024,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1362773337402453</v>
+        <v>471.94278985486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2060,13 +2048,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1241221609863747</v>
+        <v>96.87246738660909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2080,17 +2068,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007021490179023268</v>
+        <v>1887.771159411899</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.662694030889076e-15</v>
       </c>
     </row>
   </sheetData>
@@ -2127,61 +2115,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>67.41118181495786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02197386073997184</v>
+        <v>1.613997075437847e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1615082254871909</v>
+        <v>5.671225001581493e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01538788831743316</v>
+        <v>19.51643115778445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2043.957909071294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.036013614184225e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2222,27 +2210,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2230235241183959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2335909201150149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.173942179321502</v>
+        <v>155.8088636361752</v>
       </c>
     </row>
     <row r="5">
@@ -2252,27 +2240,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>21.45194499333291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06727014596824955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1537416412863869</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2309,11 +2297,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1028981313309553</v>
+        <v>1.931522196697511e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2323,27 +2311,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04613836608999679</v>
+        <v>7.531948955498772e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2171485140703616</v>
+        <v>152.3464444447404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>21.85840289923888</v>
       </c>
     </row>
     <row r="6">
@@ -2353,7 +2341,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0134424138184731</v>
+        <v>6.135319312037714e-11</v>
       </c>
     </row>
     <row r="7">
@@ -2363,7 +2351,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.279465757245481e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2400,11 +2388,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1033863488603533</v>
+        <v>160.1302752963939</v>
       </c>
     </row>
     <row r="3">
@@ -2414,47 +2402,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0610631380815892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1341307738331328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01454026503659549</v>
+        <v>12.52938032556631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007775326679641835</v>
+        <v>618.36471089427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01019709519632066</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2491,61 +2479,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03661633414487145</v>
+        <v>362.2354147281644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05673826244642226</v>
+        <v>6.016609661068059e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2852433659427523</v>
+        <v>4.630313508188937e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.02266077634938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004362240318063723</v>
+        <v>2034.441668882113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.112205115161004e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2582,880 +2570,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1041340596112322</v>
+        <v>193.0661830849152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01301705700349923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1183226771653214</v>
+        <v>29.9766434202488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.67567747636986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007892235015685728</v>
+        <v>4.210222922033708e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007271408512295665</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Potatoes</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2490668544854203</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0803893805566534</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nuts</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2236164474884977</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Olive Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.05814115033813171</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Citrus Fruit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.09281586579489309</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Oatmeal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1294800762124504</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03561513173980158</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bovine Meat (dairy herd)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.07038417446840342</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rapeseed Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01193122194118212</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Onions &amp; Leeks</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01140899120388755</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Berries &amp; Grapes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01447194409220154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Potatoes</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2606395074582792</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Barley (Beer)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1965928847162838</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lamb &amp; Mutton</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2302217363622511</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Palm Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.007845563738725247</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.08034234318794073</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Berries &amp; Grapes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1946573556668471</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1032357204551818</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dark Chocolate</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03904575798268707</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bovine Meat (beef herd)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1424896070735149</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Olive Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tomatoes</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.007597402769360671</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.006238784455784273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1158171881316247</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wine</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fish (farmed)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2543933058151638</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rapeseed Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0187932409056278</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Onions &amp; Leeks</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.007818102011903586</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.09795518494433283</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Barley (Beer)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01157383768814513</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Groundnuts</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1056921146486649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brassicas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.007003653970265066</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Berries &amp; Grapes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01130645912813631</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Oatmeal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1676904146835392</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cane Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Crustaceans (farmed)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1055606527628804</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rapeseed Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01485638432027045</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Root Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.008377297081804841</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other Fruit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.003529363149875808</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1280333403771106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cane Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eggs</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2472652167879928</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tomatoes</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01688486165793343</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0121479247351463</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Wheat &amp; Rye (Bread)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1444029770344416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dark Chocolate</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06386381953560694</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eggs</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1931721628302268</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Olive Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02443314826397281</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Berries &amp; Grapes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.009094931177617564</v>
+        <v>6.362089704084867e-10</v>
       </c>
     </row>
   </sheetData>
@@ -3496,330 +2665,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>825.6263103992193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4245004423680188</v>
+        <v>4.956155297446961e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5667179836651002</v>
+        <v>186.4418498570436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.274563432440115e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1194589393683338</v>
+        <v>7.406665735773579e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.08737764081789325</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cane Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01931936168680633</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bovine Meat (beef herd)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1584021526915449</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01215511801637176</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brassicas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.009206467789685112</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.003132914183383319</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1029743684355484</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dark Chocolate</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0390032774557331</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bovine Meat (beef herd)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1424482969545312</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Olive Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Onions &amp; Leeks</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.009398467876189791</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Citrus Fruit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.006521771054123351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cassava</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.03064418317522122</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Beet Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0792081244545004</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bovine Meat (beef herd)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1956155581936799</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Palm Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.009957519136264123</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Root Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01611246008408538</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01851851622207569</v>
+        <v>4.748023413804984e-10</v>
       </c>
     </row>
   </sheetData>
@@ -3856,11 +2752,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04452713643805774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3870,47 +2766,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07132562656396656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.319725482468758</v>
+        <v>219.5509268784576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.36744561109128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02481609716715605</v>
+        <v>1540.275990234634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01106514446960378</v>
+        <v>3.968817050012576e-09</v>
       </c>
     </row>
   </sheetData>
@@ -3947,17 +2843,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03932501349275518</v>
+        <v>484.281732468417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3967,21 +2863,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1516932880606043</v>
+        <v>243.2472715375697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02310844395754034</v>
+        <v>3.427568784293206</v>
       </c>
     </row>
     <row r="6">
@@ -3991,13 +2887,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006634424558542122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4042,57 +2938,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3538536233751405</v>
+        <v>362.2354142758927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2245888851166556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1306513670553105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01986249510739935</v>
+        <v>20.02266080677937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1937160721228545</v>
+        <v>2034.441672889517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1307384275486392</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4129,31 +3025,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004038982674685207</v>
+        <v>193.6413283661641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06541945870576268</v>
+        <v>3.879745304813301e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1418385596005755</v>
+        <v>13.18134984866722</v>
       </c>
     </row>
     <row r="5">
@@ -4163,27 +3059,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02380810107095092</v>
+        <v>7.137331008096274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4.077241464451159e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.775426213679967e-11</v>
       </c>
     </row>
   </sheetData>
@@ -4220,17 +3116,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1102126334142867</v>
+        <v>33.17269608070222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4240,21 +3136,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3121097295232725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02443074361885465</v>
+        <v>21.07356706626141</v>
       </c>
     </row>
     <row r="6">
@@ -4264,17 +3160,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02876394686237624</v>
+        <v>3397.939573526993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009032971662359748</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/repas.xlsx
+++ b/output/repas.xlsx
@@ -1,42 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="repas 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="repas 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="repas 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="repas 4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="repas 5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="repas 6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="repas 7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="repas 8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="repas 9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="repas 10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="repas 11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="repas 12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="repas 13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="repas 14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="repas 15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="repas 16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="repas 17" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="repas 18" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="repas 19" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="repas 20" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="repas 21" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="repas 22" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="repas 23" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="repas 24" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="repas 25" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="repas 26" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="repas 27" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="repas 28" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="repas 29" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="repas 30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 22" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 24" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 26" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 27" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 28" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 29" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 31" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 32" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 33" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 34" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 35" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 36" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 37" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 38" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 39" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 40" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 41" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 42" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,51 +489,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.96505564116499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.246926995423044e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>984.3855398420667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.803835486009933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.975333961919182e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +543,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.300401631110114e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +584,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.5130590232161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -588,17 +600,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.18741205582613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -618,7 +630,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -663,17 +675,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.1950245941377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.738577123222495e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -683,37 +695,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.74289913607614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.677280221992363e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285.1541361722156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.320236657767964e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -750,17 +762,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.1302752963581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -770,7 +782,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -780,27 +792,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.5293803268536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.3647108942546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -845,37 +857,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.2026118723566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.241628749288793e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.4323112047459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.16939265236276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -885,17 +897,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.970974494724942e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.24065202555812e-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -932,17 +944,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.1999872410644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -952,27 +964,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.5211055210923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.85260805580263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -982,7 +994,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1023,17 +1035,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.6616794325497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1043,37 +1055,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.9190616165504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.53268172674868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.183479932690392e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1114,17 +1126,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.4833849774245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1134,11 +1146,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.7862798235786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1148,13 +1160,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.61227752924772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1164,7 +1176,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1205,11 +1217,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.775934719616389e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1225,41 +1237,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>784.3506053233177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.333867301366521e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1088.267560730181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.59699151618857e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1300,47 +1312,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.686044963923201e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.992723123169621e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Pig Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8088636303524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.45194499302679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.714072074663603e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1350,7 +1362,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.240052869562105e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1387,51 +1399,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.0661830823952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.096604594633126e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.97664342559968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.675677476475469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.419923777850682e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1441,7 +1453,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.836798641012212e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1490,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1488,7 +1500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1498,37 +1510,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.4564809629762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.36514205696508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1513.08043113101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1569,17 +1581,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>206.8051282032456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1593,13 +1605,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.62660256291295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1619,7 +1631,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1660,17 +1672,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.4648405342131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1680,27 +1692,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.8423312790833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.77928115669937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1710,7 +1722,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1751,11 +1763,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.9284786904136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1771,37 +1783,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.6711800391596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.972912064821356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.452330458773647e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1842,7 +1854,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1852,7 +1864,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1862,7 +1874,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1872,7 +1884,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1892,7 +1904,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1933,17 +1945,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.2354143238133</v>
+        <v>129.7644303200523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1953,7 +1965,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1963,11 +1975,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.02266076787945</v>
+        <v>10.15340039557505</v>
       </c>
     </row>
     <row r="6">
@@ -1977,13 +1989,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2034.441673555265</v>
+        <v>501.1029040805954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2028,13 +2040,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471.94278985486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2044,17 +2056,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.87246738660909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2064,21 +2076,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1887.771159411899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.662694030889076e-15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2115,31 +2127,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.41118181495786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.613997075437847e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.671225001581493e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2149,27 +2161,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.51643115778445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043.957909071294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.036013614184225e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2218,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2216,7 +2228,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2226,27 +2238,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8088636361752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.45194499333291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2256,7 +2268,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2297,61 +2309,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.931522196697511e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.531948955498772e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.3464444447404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.85840289923888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.135319312037714e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.279465757245481e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2388,17 +2400,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.1302752963939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2408,7 +2420,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2418,11 +2430,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.52938032556631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2432,7 +2444,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.36471089427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2479,61 +2491,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.2354147281644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.016609661068059e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.630313508188937e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.02266077634938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2034.441668882113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.112205115161004e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2570,11 +2582,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.0661830849152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2590,41 +2602,860 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Pig Meat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.9766434202488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.67567747636986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.210222922033708e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soymilk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Bananas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.362089704084867e-10</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Crustaceans (farmed)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rapeseed Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Oatmeal</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maize (Meal)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Barley (Beer)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dark Chocolate</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bovine Meat (dairy herd)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Groundnuts</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maize (Meal)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>82.91751158954685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.839789547375403e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>253.8131593701851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.460149687684861</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.590982148831245e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.48765593621647e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wheat &amp; Rye (Bread)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2661,51 +3492,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6263103992193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.956155297446961e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.4418498570436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.274563432440115e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.406665735773579e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2715,7 +3546,280 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.748023413804984e-10</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Beet Sugar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lamb &amp; Mutton</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maize (Meal)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nuts</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Root Vegetables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2772,41 +3876,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.5509268784576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.36744561109128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1540.275990234634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.968817050012576e-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2843,17 +3947,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.281732468417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2863,27 +3967,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.2472715375697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.427568784293206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2934,17 +4038,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.2354142758927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2954,7 +4058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2968,23 +4072,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.02266080677937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2034.441672889517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3025,21 +4129,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.6413283661641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.879745304813301e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3049,37 +4153,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.18134984866722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.137331008096274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.077241464451159e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.775426213679967e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3116,11 +4220,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.17269608070222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3136,7 +4240,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Bovine Meat (dairy herd)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3146,11 +4250,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.07356706626141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3160,13 +4264,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3397.939573526993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B7" t="n">

--- a/output/repas.xlsx
+++ b/output/repas.xlsx
@@ -44,11 +44,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 35" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 36" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 37" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 38" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 39" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 40" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 41" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 42" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,57 +484,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.5679933412544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>73.22451068519061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18.58472285664465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.717247610949635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.356774113351759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -580,47 +575,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>140.8247171987118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>45.27041456543285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.60464393390171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.038269412665735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -630,7 +625,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -671,27 +666,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>86.34379338742824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>76.30506505148273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -701,31 +696,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.689668983355769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.449607848523288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>29.52361376155301</v>
       </c>
     </row>
   </sheetData>
@@ -762,47 +757,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>213.9743232733464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>106.9947568851865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.629409169591924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>12.45298398713865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -812,11 +807,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.970974965623389</v>
       </c>
     </row>
   </sheetData>
@@ -853,27 +848,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>62.76488997096789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>115.3113992244785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -883,31 +878,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.75146248203793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.8654941301168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.87896382160181</v>
       </c>
     </row>
   </sheetData>
@@ -944,17 +939,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>159.7079743644023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -964,27 +959,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.94763906109887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.835714322140268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -994,7 +989,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1035,47 +1030,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>156.2941097926359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.888326152633823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.03248906467677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.372249597851702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1085,7 +1080,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1126,17 +1121,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>153.4202843408306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1146,27 +1141,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.36330569775728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.641584303691673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1176,11 +1171,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.49906845314468</v>
       </c>
     </row>
   </sheetData>
@@ -1217,27 +1212,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>52.11654131290126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>122.6558228527925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1247,31 +1242,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.706873604120785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.99423176098904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.68264025273201</v>
       </c>
     </row>
   </sheetData>
@@ -1308,61 +1303,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.995860410446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>60.88133192873547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.573659822239222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.36459595808812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>43.50402736039447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>57.32361719211536</v>
       </c>
     </row>
   </sheetData>
@@ -1399,61 +1394,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.1936749616638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>145.9241911318643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.35592471795641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>17.71546391724162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.73542171481039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>140.9929310664429</v>
       </c>
     </row>
   </sheetData>
@@ -1490,57 +1485,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>749.7944256767695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>349.619056836394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.725641231872487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>308.4938626182025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19.07058137037766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1581,47 +1576,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>116.9477307414505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77.76108394265741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.54245790042359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.69221492770281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1631,11 +1626,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>304.2739898754689</v>
       </c>
     </row>
   </sheetData>
@@ -1672,57 +1667,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>140.7992340269487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>45.18379630612517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.59613162486286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.020560375918727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.271844072729181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1763,17 +1758,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.6955539689902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1783,27 +1778,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.53532825800116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.473230786518037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1813,7 +1808,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1854,57 +1849,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>97.17383399233817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>170.9916720946554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.767878996312945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.301158334264738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.153949727156141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1945,57 +1940,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.7644303200523</v>
+        <v>156.0965272903275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.328008769891952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.88331252556726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.15340039557505</v>
+        <v>9.872438183820037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.1029040805954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2036,17 +2031,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>157.6950593832645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2056,27 +2051,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.59992351911168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.261869927671808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2086,11 +2081,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.71426641025095</v>
       </c>
     </row>
   </sheetData>
@@ -2127,57 +2122,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>236.8444088328121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>186.9149737575532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.64261026877301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>26.47020182496631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.120151597227645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2218,27 +2213,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>116.1550622035014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>188.2619730024546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2248,31 +2243,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>102.8467350013837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>70.00664851414599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>213.6880196936835</v>
       </c>
     </row>
   </sheetData>
@@ -2309,47 +2304,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>156.5860395730157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.286013686202921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.88727885287064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.00323773422821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2359,7 +2354,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2400,17 +2395,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>159.1661075857648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2420,17 +2415,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.92176946763242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2440,7 +2435,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2450,7 +2445,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2491,47 +2486,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>139.2972867910183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5.806283906564413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.89548273612911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.949684559098916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2541,11 +2536,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>56.94873912134871</v>
       </c>
     </row>
   </sheetData>
@@ -2582,27 +2577,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99.70918057208793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>94.53163589550218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2612,31 +2607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.763409239300289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.194991161792068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.62083903374081</v>
       </c>
     </row>
   </sheetData>
@@ -2673,37 +2668,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142.984632195637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.59172310315957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21.19513766035382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2713,7 +2708,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2723,7 +2718,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2764,47 +2759,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>157.0303697945935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>188.1789486577564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.97874204052772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.99520126759707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2814,7 +2809,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2855,17 +2850,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>161.5058135258775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2875,27 +2870,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.97970907909561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.448811310911089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2905,11 +2900,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>17.27597508014403</v>
       </c>
     </row>
   </sheetData>
@@ -2946,47 +2941,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>160.4889685189412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.219517610014194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.4435789052703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.216344048433161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2996,7 +2991,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3037,57 +3032,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>194.3882465285257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>337.8806479379128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.23477889098808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>37.00613153991328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>13.58799800175539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3128,17 +3123,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>156.9029112671995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3148,27 +3143,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (dairy herd)</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.10603284225317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.29636041119706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3178,11 +3173,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.19197536431883</v>
       </c>
     </row>
   </sheetData>
@@ -3219,37 +3214,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.57183396825587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>115.3544585413864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.56650597366622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3259,7 +3254,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3269,193 +3264,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>82.91751158954685</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wine</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.839789547375403e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tofu</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>253.8131593701851</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7.460149687684861</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tomatoes</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.590982148831245e-07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.48765593621647e-07</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Wheat &amp; Rye (Bread)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Peas</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sunflower Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other Fruit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+        <v>185.5005408490478</v>
       </c>
     </row>
   </sheetData>
@@ -3492,334 +3305,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>152.1782301367916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>266.5390878360652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.95299823206275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>145.806429409405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>184.0025183551468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Potatoes</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Beet Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lamb &amp; Mutton</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Olive Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brassicas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Citrus Fruit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maize (Meal)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cane Sugar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cheese</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ingrédient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantités</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Potatoes</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wine</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nuts</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Soybean Oil</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Root Vegetables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+        <v>218.3689286918235</v>
       </c>
     </row>
   </sheetData>
@@ -3856,61 +3396,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>138.8013080143782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10.30284001102825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.19561024772689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.655586414893033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.299063272728968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>48.55736033221392</v>
       </c>
     </row>
   </sheetData>
@@ -3947,47 +3487,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>798.9791552192301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>244.7875764620285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.210744094128927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>317.8674589739172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3997,7 +3537,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4038,27 +3578,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Groundnuts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>130.4735565813889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20.02773484322483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4068,31 +3608,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.094868270941676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.819298429512799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>73.4569148838747</v>
       </c>
     </row>
   </sheetData>
@@ -4129,47 +3669,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>152.1263827759374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28.4966298626523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.42054498856569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.330881657026185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4179,7 +3719,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4220,17 +3760,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>159.079679883342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4240,27 +3780,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bovine Meat (dairy herd)</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.77250263462125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.29542626656298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4270,11 +3810,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.49065200875841</v>
       </c>
     </row>
   </sheetData>

--- a/output/repas.xlsx
+++ b/output/repas.xlsx
@@ -44,6 +44,25 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 35" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 36" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 37" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 38" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 39" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 40" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 41" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 42" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 43" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 44" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 45" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 46" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 47" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 48" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 49" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 50" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 51" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 52" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 53" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 54" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 55" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="repas 56" sheetId="56" state="visible" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,11 +503,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.5679933412544</v>
+        <v>83.46504446103893</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +517,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.22451068519061</v>
+        <v>123.5263612945695</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.58472285664465</v>
+        <v>10.5386693069823</v>
       </c>
     </row>
     <row r="5">
@@ -518,27 +537,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.717247610949635</v>
+        <v>6.073368649606758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.356774113351759</v>
+        <v>4.074527328516264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.21972474844947</v>
       </c>
     </row>
   </sheetData>
@@ -575,11 +594,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.8247171987118</v>
+        <v>187.7539278980451</v>
       </c>
     </row>
     <row r="3">
@@ -589,37 +608,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.27041456543285</v>
+        <v>129.0968527224518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.60464393390171</v>
+        <v>9.247072415507233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.038269412665735</v>
+        <v>12.24003319928603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.323598952068144</v>
       </c>
     </row>
     <row r="7">
@@ -629,7 +648,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>17.51664380140095</v>
       </c>
     </row>
   </sheetData>
@@ -666,11 +685,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.34379338742824</v>
+        <v>91.92995734851911</v>
       </c>
     </row>
     <row r="3">
@@ -680,7 +699,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.30506505148273</v>
+        <v>119.9686194261995</v>
       </c>
     </row>
     <row r="4">
@@ -690,37 +709,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.142831235840418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.689668983355769</v>
+        <v>4.399536991592031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.449607848523288</v>
+        <v>3.590954337949984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.52361376155301</v>
+        <v>63.98731533330111</v>
       </c>
     </row>
   </sheetData>
@@ -761,17 +780,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213.9743232733464</v>
+        <v>276.8461733481195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.9947568851865</v>
+        <v>39.46386282874347</v>
       </c>
     </row>
     <row r="4">
@@ -781,37 +800,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.629409169591924</v>
+        <v>2.094333329707922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.45298398713865</v>
+        <v>25.04683294406767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20.05210756547777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.970974965623389</v>
+        <v>72.00692732866545</v>
       </c>
     </row>
   </sheetData>
@@ -848,41 +867,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.76488997096789</v>
+        <v>151.2503308266554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.3113992244785</v>
+        <v>97.77037449432774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.48781115832503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.75146248203793</v>
+        <v>12.01305939018808</v>
       </c>
     </row>
     <row r="6">
@@ -892,17 +911,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.8654941301168</v>
+        <v>5.56114147327506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.87896382160181</v>
+        <v>97.41930630093883</v>
       </c>
     </row>
   </sheetData>
@@ -939,61 +958,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.7079743644023</v>
+        <v>155.4514310304547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>170.4427141603974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.94763906109887</v>
+        <v>18.93011065097335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.835714322140268</v>
+        <v>46.30614817602656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>98.37711190219945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>336.0139427206632</v>
       </c>
     </row>
   </sheetData>
@@ -1030,21 +1049,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.2941097926359</v>
+        <v>167.5001235073806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.888326152633823</v>
+        <v>350.7253615505115</v>
       </c>
     </row>
     <row r="4">
@@ -1054,37 +1073,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.03248906467677</v>
+        <v>18.44256786056908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.372249597851702</v>
+        <v>79.58421066018822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>128.8697936949166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>277.1503164745665</v>
       </c>
     </row>
   </sheetData>
@@ -1121,41 +1140,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4202843408306</v>
+        <v>81.8083011912174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>121.4659949805258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.36330569775728</v>
+        <v>10.05552514016728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.641584303691673</v>
+        <v>10.29733536084453</v>
       </c>
     </row>
     <row r="6">
@@ -1165,17 +1184,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>13.74457414836508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.49906845314468</v>
+        <v>13.33213626968301</v>
       </c>
     </row>
   </sheetData>
@@ -1212,11 +1231,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.11654131290126</v>
+        <v>80.66721635025597</v>
       </c>
     </row>
     <row r="3">
@@ -1226,47 +1245,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.6558228527925</v>
+        <v>122.8097923039197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.0574662121018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.706873604120785</v>
+        <v>8.96259248342397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.99423176098904</v>
+        <v>11.90097327060031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.68264025273201</v>
+        <v>13.94416033967778</v>
       </c>
     </row>
   </sheetData>
@@ -1303,21 +1322,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.995860410446</v>
+        <v>101.1357364793027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.88133192873547</v>
+        <v>99.91858763182287</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1346,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.573659822239222</v>
+        <v>9.915625129342828</v>
       </c>
     </row>
     <row r="5">
@@ -1337,17 +1356,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.36459595808812</v>
+        <v>6.461495040537463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.50402736039447</v>
+        <v>2.744229417926888</v>
       </c>
     </row>
     <row r="7">
@@ -1357,7 +1376,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.32361719211536</v>
+        <v>18.6916041674525</v>
       </c>
     </row>
   </sheetData>
@@ -1394,11 +1413,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.1936749616638</v>
+        <v>124.4215840618202</v>
       </c>
     </row>
     <row r="3">
@@ -1408,37 +1427,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.9241911318643</v>
+        <v>149.8100385354746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.35592471795641</v>
+        <v>12.98122879005982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.71546391724162</v>
+        <v>11.95353924627197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.73542171481039</v>
+        <v>20.82624986663177</v>
       </c>
     </row>
     <row r="7">
@@ -1448,7 +1467,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9929310664429</v>
+        <v>87.12431739661604</v>
       </c>
     </row>
   </sheetData>
@@ -1485,11 +1504,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.7944256767695</v>
+        <v>393.3010017227606</v>
       </c>
     </row>
     <row r="3">
@@ -1499,7 +1518,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349.619056836394</v>
+        <v>86.17897592386817</v>
       </c>
     </row>
     <row r="4">
@@ -1509,7 +1528,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.725641231872487</v>
+        <v>7.128399178845029</v>
       </c>
     </row>
     <row r="5">
@@ -1519,27 +1538,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.4938626182025</v>
+        <v>69.30141865380892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.07058137037766</v>
+        <v>31.64346746877087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>62.90256817448164</v>
       </c>
     </row>
   </sheetData>
@@ -1576,61 +1595,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.9477307414505</v>
+        <v>364.3966661209454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.76108394265741</v>
+        <v>205.8268166913943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.54245790042359</v>
+        <v>7.964099065842959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.69221492770281</v>
+        <v>61.80123371241888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>155.68819940946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2739898754689</v>
+        <v>156.9310242011066</v>
       </c>
     </row>
   </sheetData>
@@ -1667,31 +1686,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.7992340269487</v>
+        <v>81.8916782458639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.18379630612517</v>
+        <v>121.5304727880791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.59613162486286</v>
+        <v>10.05593878822548</v>
       </c>
     </row>
     <row r="5">
@@ -1701,27 +1720,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.020560375918727</v>
+        <v>9.56056175578256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.271844072729181</v>
+        <v>13.74612866820771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.33013276662781</v>
       </c>
     </row>
   </sheetData>
@@ -1758,51 +1777,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.6955539689902</v>
+        <v>176.9773333023999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>154.388823128011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.53532825800116</v>
+        <v>8.544790710808854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.473230786518037</v>
+        <v>13.6117550591213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19.9244980388896</v>
       </c>
     </row>
     <row r="7">
@@ -1812,7 +1831,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.98469315845322</v>
       </c>
     </row>
   </sheetData>
@@ -1849,61 +1868,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.17383399233817</v>
+        <v>122.9661829415869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.9916720946554</v>
+        <v>147.8416997440336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.767878996312945</v>
+        <v>13.93591493163345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.301158334264738</v>
+        <v>18.04401206857067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.153949727156141</v>
+        <v>21.08496626188823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>83.29449054027688</v>
       </c>
     </row>
   </sheetData>
@@ -1940,31 +1959,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.0965272903275</v>
+        <v>241.0533228757878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.328008769891952</v>
+        <v>216.1621288462928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.88331252556726</v>
+        <v>4.19365345468907</v>
       </c>
     </row>
     <row r="5">
@@ -1974,17 +1993,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.872438183820037</v>
+        <v>71.42786232323166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>129.9680213515382</v>
       </c>
     </row>
     <row r="7">
@@ -1994,7 +2013,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>212.8113981065021</v>
       </c>
     </row>
   </sheetData>
@@ -2031,21 +2050,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.6950593832645</v>
+        <v>159.6015278821575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>149.178862658907</v>
       </c>
     </row>
     <row r="4">
@@ -2055,37 +2074,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.59992351911168</v>
+        <v>21.4863521119405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.261869927671808</v>
+        <v>70.73357976229076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>87.2812817456927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.71426641025095</v>
+        <v>334.2868258477531</v>
       </c>
     </row>
   </sheetData>
@@ -2122,61 +2141,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.8444088328121</v>
+        <v>243.7715163020189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.9149737575532</v>
+        <v>178.2869612784216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.64261026877301</v>
+        <v>4.171522418733161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.47020182496631</v>
+        <v>97.92850763119465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.120151597227645</v>
+        <v>148.5912143230819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>168.7989230817517</v>
       </c>
     </row>
   </sheetData>
@@ -2213,61 +2232,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.1550622035014</v>
+        <v>257.7492278928713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.2619730024546</v>
+        <v>213.1318814510618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.063629351155157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.8467350013837</v>
+        <v>76.80274106763379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.00664851414599</v>
+        <v>86.6096484054346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Barley (Beer)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.6880196936835</v>
+        <v>100.4729715262442</v>
       </c>
     </row>
   </sheetData>
@@ -2304,61 +2323,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.5860395730157</v>
+        <v>91.67369473167327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wheat &amp; Rye (Bread)</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.286013686202921</v>
+        <v>120.2984279747096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.88727885287064</v>
+        <v>5.155288111156267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.00323773422821</v>
+        <v>4.474675421584314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.366809343861004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>63.84937749053073</v>
       </c>
     </row>
   </sheetData>
@@ -2399,17 +2418,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.1661075857648</v>
+        <v>136.3940051126211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.529718948746659</v>
       </c>
     </row>
     <row r="4">
@@ -2419,37 +2438,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.92176946763242</v>
+        <v>22.76737769029417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.007892177467477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.323403549933785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>49.61536849025202</v>
       </c>
     </row>
   </sheetData>
@@ -2486,51 +2505,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.2972867910183</v>
+        <v>91.52852310600906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.806283906564413</v>
+        <v>120.2699071129739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.89548273612911</v>
+        <v>5.171049710551529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.949684559098916</v>
+        <v>6.133491853493942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.268419320588966</v>
       </c>
     </row>
     <row r="7">
@@ -2540,7 +2559,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.94873912134871</v>
+        <v>63.75663977757788</v>
       </c>
     </row>
   </sheetData>
@@ -2577,41 +2596,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Other Pulses</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.70918057208793</v>
+        <v>135.9454319905425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.53163589550218</v>
+        <v>1.633776450159637</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.49616792238054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.763409239300289</v>
+        <v>0.3102511619592914</v>
       </c>
     </row>
     <row r="6">
@@ -2621,17 +2640,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.194991161792068</v>
+        <v>0.4975926429885931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.62083903374081</v>
+        <v>59.19831466395953</v>
       </c>
     </row>
   </sheetData>
@@ -2668,61 +2687,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.984632195637</v>
+        <v>93.27437594404867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.59172310315957</v>
+        <v>414.35506159718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.19513766035382</v>
+        <v>22.05961304437034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>86.38725445432986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>153.7832030081537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>209.7650508530768</v>
       </c>
     </row>
   </sheetData>
@@ -2759,61 +2778,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.0303697945935</v>
+        <v>277.0418940330945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oatmeal</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.1789486577564</v>
+        <v>38.95246246519361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.97874204052772</v>
+        <v>2.086413837088855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.99520126759707</v>
+        <v>21.73706771914672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25.58547889342485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>70.03671447331131</v>
       </c>
     </row>
   </sheetData>
@@ -2850,21 +2869,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.5058135258775</v>
+        <v>170.3604352274372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>92.15997168390831</v>
       </c>
     </row>
     <row r="4">
@@ -2874,7 +2893,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.97970907909561</v>
+        <v>16.46600526590589</v>
       </c>
     </row>
     <row r="5">
@@ -2884,27 +2903,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.448811310911089</v>
+        <v>17.21467961800389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.375845329804017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.27597508014403</v>
+        <v>160.9026491369822</v>
       </c>
     </row>
   </sheetData>
@@ -2941,61 +2960,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.4889685189412</v>
+        <v>149.0320485601659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.219517610014194</v>
+        <v>96.80958236669794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.4435789052703</v>
+        <v>12.65241060611689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.216344048433161</v>
+        <v>10.38477260066231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.049086999691761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>92.50086572047199</v>
       </c>
     </row>
   </sheetData>
@@ -3032,61 +3051,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.3882465285257</v>
+        <v>412.8090278870414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maize (Meal)</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.8806479379128</v>
+        <v>62.04264826156771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.23477889098808</v>
+        <v>6.35300254314609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.00613153991328</v>
+        <v>42.11265035613486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.58799800175539</v>
+        <v>12.35763060483217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Cane Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>63.00436016989539</v>
       </c>
     </row>
   </sheetData>
@@ -3123,41 +3142,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.9029112671995</v>
+        <v>96.54248411020643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Wheat &amp; Rye (Bread)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>151.5067605327509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.10603284225317</v>
+        <v>15.04905090839924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.29636041119706</v>
+        <v>21.41505690509091</v>
       </c>
     </row>
     <row r="6">
@@ -3167,17 +3186,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23.32914725365747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.19197536431883</v>
+        <v>52.59397369834745</v>
       </c>
     </row>
   </sheetData>
@@ -3214,11 +3233,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.57183396825587</v>
+        <v>101.0051717535047</v>
       </c>
     </row>
     <row r="3">
@@ -3228,47 +3247,229 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.3544585413864</v>
+        <v>99.9243526246272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.56650597366622</v>
+        <v>9.917625186930835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.095857340163199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4.634237361019895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Beet Sugar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18.86899320595765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>123.6053981743664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>334.7704581935994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18.79131976818212</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Root Vegetables</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>183.2690523428121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>123.6877635348341</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.5005408490478</v>
+        <v>212.4769085548797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Other Pulses</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>138.1330994502847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2281205013715386</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rapeseed Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22.44813981259988</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.095446300431094</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.324539219828759</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53.73838539833776</v>
       </c>
     </row>
   </sheetData>
@@ -3305,11 +3506,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.1782301367916</v>
+        <v>117.5134067893288</v>
       </c>
     </row>
     <row r="3">
@@ -3319,27 +3520,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.5390878360652</v>
+        <v>310.2604268726776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.95299823206275</v>
+        <v>14.47289568375425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.806429409405</v>
+        <v>77.97459179558389</v>
       </c>
     </row>
     <row r="6">
@@ -3349,7 +3550,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184.0025183551468</v>
+        <v>225.4312098331436</v>
       </c>
     </row>
     <row r="7">
@@ -3359,7 +3560,917 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.3689286918235</v>
+        <v>179.1811245213271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>167.5001235073806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>350.7253615505115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rapeseed Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18.44256786056908</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.58421066018822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>128.8697936949166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>277.1503164745665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>176.1934916185582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wheat &amp; Rye (Bread)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>156.4577882064718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.635248923302242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.42393878727734</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.43986933398341</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Barley (Beer)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16.56430085318924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>161.7543948805339</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>95.05001375117664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rapeseed Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.17292885475871</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.75004586264825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.363953279137194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105.0684642841325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>176.8675086656509</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wheat &amp; Rye (Bread)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>156.3492693522588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.513946329487766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.72238739936159</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.57204051804907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13.04384382734948</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>373.410214123114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>216.7841521190209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.280007319534093</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.76051863615376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>88.03998626947545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Barley (Beer)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>104.4001637500627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Soymilk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>170.5991695479101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>209.4334279365768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21.05377513848211</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>111.1708547483672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Berries &amp; Grapes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>143.7847466233248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>301.3907827283942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>277.0418940330945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38.95246246519361</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Palm Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.086413837088855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21.73706771914672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25.58547889342485</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>70.03671447331131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>411.2521763274639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.83904731070167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rapeseed Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.402937744089343</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>41.95704407993811</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28.6193434515159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.88180914988575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>180.8336424906155</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.39124973692601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.50553664477482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19.54404703402275</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Berries &amp; Grapes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.433876752208986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>172.4975085479961</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bovine Meat (beef herd)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>65.85110686440653</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Oatmeal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>123.4658712563061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.28762837815916</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brassicas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.059666890830938</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Berries &amp; Grapes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.96497344184601</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33.50709059379669</v>
       </c>
     </row>
   </sheetData>
@@ -3396,41 +4507,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.8013080143782</v>
+        <v>118.2060921776835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.30284001102825</v>
+        <v>100.7130280839301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.19561024772689</v>
+        <v>13.96427549024332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.655586414893033</v>
+        <v>10.57321891791709</v>
       </c>
     </row>
     <row r="6">
@@ -3440,7 +4551,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.299063272728968</v>
+        <v>6.503746048067777</v>
       </c>
     </row>
     <row r="7">
@@ -3450,7 +4561,644 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.55736033221392</v>
+        <v>53.77854802652818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bovine Meat (beef herd)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>101.1004694121684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Oatmeal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100.0759634299835</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.911093518207011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.933168631432758</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.776615445479085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18.97234050191137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>123.9959683798715</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>261.9246713801961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.7678033347068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>144.5483171995034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Berries &amp; Grapes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>201.8958445599912</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>166.1795832317702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Crustaceans (farmed)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>97.39437241046764</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potatoes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>404.6044644163634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23.97050001652323</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>106.0563344744252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Citrus Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150.0699088507129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>212.4090688064817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>277.7047178207605</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.43330116582498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.013121435095854</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21.91325781964126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18.40202947239629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cane Sugar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.65578419377394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>173.2427803338007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cassava</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200.6505449159374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.813417934396654</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Onions &amp; Leeks</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.04823913433991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>108.6849169996753</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>151.5570222455561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Poultry Meat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>161.7825172697378</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.50250780188445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.14224883164314</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.73160626761194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.404295594022184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105.0523872441303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrédient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bovine Meat (beef herd)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>95.26088186426624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wheat &amp; Rye (Bread)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>153.8825968680258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Olive Oil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.11601746726235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other Vegetables</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.96177675063935</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other Fruit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23.85290938482008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.34521806306257</v>
       </c>
     </row>
   </sheetData>
@@ -3487,61 +5235,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Soymilk</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798.9791552192301</v>
+        <v>81.06735908893616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Oatmeal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.7875764620285</v>
+        <v>122.761635277375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.210744094128927</v>
+        <v>10.03242064885545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.8674589739172</v>
+        <v>9.777711026642219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>10.043180305157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barley (Beer)</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.84060109930547</v>
       </c>
     </row>
   </sheetData>
@@ -3578,21 +5326,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Groundnuts</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130.4735565813889</v>
+        <v>150.7570676305435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potatoes</t>
+          <t>Maize (Meal)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.02773484322483</v>
+        <v>97.43171054411719</v>
       </c>
     </row>
     <row r="4">
@@ -3602,37 +5350,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.51673808592139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.094868270941676</v>
+        <v>16.85094556918819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.819298429512799</v>
+        <v>5.387333933161269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cane Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.4569148838747</v>
+        <v>97.09687553310435</v>
       </c>
     </row>
   </sheetData>
@@ -3669,21 +5417,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.1263827759374</v>
+        <v>78.78419078773099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Potatoes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.4966298626523</v>
+        <v>351.0826705867564</v>
       </c>
     </row>
     <row r="4">
@@ -3693,37 +5441,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.42054498856569</v>
+        <v>17.82224938963253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.330881657026185</v>
+        <v>195.4788153051257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>130.5715017077352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beet Sugar</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.8046964219067</v>
       </c>
     </row>
   </sheetData>
@@ -3760,41 +5508,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Other Pulses</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.079679883342</v>
+        <v>277.0447647572524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.31085583719344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.77250263462125</v>
+        <v>2.035746299882305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.29542626656298</v>
+        <v>26.21562582045871</v>
       </c>
     </row>
     <row r="6">
@@ -3804,17 +5552,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>18.34771089690565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Beet Sugar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.49065200875841</v>
+        <v>71.37822558417204</v>
       </c>
     </row>
   </sheetData>
